--- a/Pm_CASOSDEESTUDIO.xlsx
+++ b/Pm_CASOSDEESTUDIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34600\Desktop\Universidad\Máster\1. Primero\Generación y gestión de potencia eléctrica\Trabajos\Power_generation_orbital_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB3B797-7624-453F-838A-3359CDBC5B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A9B2E-F78E-47DE-AC4B-9C45E56A371C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
   <si>
     <t>BETA(º)</t>
   </si>
@@ -59,13 +59,16 @@
   <si>
     <t xml:space="preserve">                                       la componente perpendicular de los rayos de sol y simular el caso general sin descomposición para obtener buenas aproximaciones del periodo de eclipse total</t>
   </si>
+  <si>
+    <t>CORREGIDO. VOLVER A SACAR LOS TIEMPOS DE ECLIPSE, AHORA YA SON DEL CASO COMPLETO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,6 +1098,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pm_CASOSDEESTUDIO.xlsx
+++ b/Pm_CASOSDEESTUDIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34600\Desktop\Universidad\Máster\1. Primero\Generación y gestión de potencia eléctrica\Trabajos\Power_generation_orbital_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A9B2E-F78E-47DE-AC4B-9C45E56A371C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D6C78-8244-4EAF-A9DF-2AC8CDA5748A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="8">
   <si>
     <t>BETA(º)</t>
   </si>
@@ -48,19 +48,7 @@
     <t>idem</t>
   </si>
   <si>
-    <t>NOTA IMPORTANTE: La potencia generada por los paneles solares aumenta desde SS12AM (beta=0) hasta SS dawn-dusk (beta=90º) dado que el periodo de eclipse va haciendose cada vez más corto.</t>
-  </si>
-  <si>
     <t>t_eclipse_par(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                       Aquí solo aparece representado el eclipse para la componente solar contenida en el plano orbital, por eso no cambia al aumentar beta. Se tendría que eliminar la aproximación de t_eclipse = T/3 para </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                       la componente perpendicular de los rayos de sol y simular el caso general sin descomposición para obtener buenas aproximaciones del periodo de eclipse total</t>
-  </si>
-  <si>
-    <t>CORREGIDO. VOLVER A SACAR LOS TIEMPOS DE ECLIPSE, AHORA YA SON DEL CASO COMPLETO</t>
   </si>
 </sst>
 </file>
@@ -385,9 +373,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -417,7 +405,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -605,7 +593,7 @@
         <v>249.08240000000001</v>
       </c>
       <c r="F12">
-        <v>1758.5</v>
+        <v>1698.6</v>
       </c>
       <c r="G12">
         <v>6.0255999999999998</v>
@@ -659,7 +647,7 @@
         <v>248.01849999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>1750.5</v>
+        <v>1690.8</v>
       </c>
       <c r="G15">
         <v>6.0975000000000001</v>
@@ -713,7 +701,7 @@
         <v>246.06630000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>1737.5</v>
+        <v>1678.3</v>
       </c>
       <c r="G18">
         <v>6.2336</v>
@@ -770,7 +758,7 @@
         <v>249.08240000000001</v>
       </c>
       <c r="F22">
-        <v>1758.5</v>
+        <v>1522.9</v>
       </c>
       <c r="G22">
         <v>6.2739000000000003</v>
@@ -824,7 +812,7 @@
         <v>248.01849999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>1750.5</v>
+        <v>1516</v>
       </c>
       <c r="G25">
         <v>6.3426</v>
@@ -878,7 +866,7 @@
         <v>246.06630000000001</v>
       </c>
       <c r="F28" s="2">
-        <v>1737.5</v>
+        <v>1504.7</v>
       </c>
       <c r="G28" s="1">
         <v>6.4755000000000003</v>
@@ -935,13 +923,13 @@
         <v>249.08240000000001</v>
       </c>
       <c r="F32">
-        <v>1758.5</v>
+        <v>1243.5</v>
       </c>
       <c r="G32">
         <v>6.4837999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>0.1</v>
       </c>
@@ -958,7 +946,7 @@
         <v>6.4828000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>0.5</v>
       </c>
@@ -975,7 +963,7 @@
         <v>6.4819000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>500</v>
       </c>
@@ -989,13 +977,13 @@
         <v>248.01849999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>1750.5</v>
+        <v>1237.8</v>
       </c>
       <c r="G35">
         <v>6.5522</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>0.1</v>
       </c>
@@ -1012,7 +1000,7 @@
         <v>6.5517000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>0.5</v>
       </c>
@@ -1029,7 +1017,7 @@
         <v>6.5526999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>600</v>
       </c>
@@ -1043,13 +1031,13 @@
         <v>246.06630000000001</v>
       </c>
       <c r="F38" s="2">
-        <v>1737.5</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="G38">
         <v>6.6788999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>0.1</v>
       </c>
@@ -1066,7 +1054,7 @@
         <v>6.6798000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>0.5</v>
       </c>
@@ -1081,26 +1069,6 @@
       </c>
       <c r="G40">
         <v>6.6794000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
